--- a/data/revenue/total_revenue_NestroStations.xlsx
+++ b/data/revenue/total_revenue_NestroStations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Доход от ДАС, евро</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>98.70041756216175</v>
       </c>
+      <c r="E2" t="n">
+        <v>43.842315</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.254834</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>9.691205549252933</v>
       </c>
+      <c r="E3" t="n">
+        <v>45.052381</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.307831</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>54.76367353278705</v>
       </c>
+      <c r="E4" t="n">
+        <v>44.622637</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.370599</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>12.38584358167861</v>
       </c>
+      <c r="E5" t="n">
+        <v>44.320866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.937977</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +568,12 @@
       <c r="D6" t="n">
         <v>12.46126802736494</v>
       </c>
+      <c r="E6" t="n">
+        <v>44.419015</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.048408</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +590,12 @@
       <c r="D7" t="n">
         <v>109.2216290266381</v>
       </c>
+      <c r="E7" t="n">
+        <v>44.872041</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.332149</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -566,6 +612,12 @@
       <c r="D8" t="n">
         <v>39.44037730635944</v>
       </c>
+      <c r="E8" t="n">
+        <v>44.489545</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.923317</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -582,6 +634,12 @@
       <c r="D9" t="n">
         <v>75.42948505198704</v>
       </c>
+      <c r="E9" t="n">
+        <v>44.821766</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.196404</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -598,6 +656,12 @@
       <c r="D10" t="n">
         <v>87.31624845055546</v>
       </c>
+      <c r="E10" t="n">
+        <v>45.096755</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.513176</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -614,6 +678,12 @@
       <c r="D11" t="n">
         <v>15.21292601832845</v>
       </c>
+      <c r="E11" t="n">
+        <v>44.903194</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.29847</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -630,6 +700,12 @@
       <c r="D12" t="n">
         <v>1.969195977059118</v>
       </c>
+      <c r="E12" t="n">
+        <v>44.768788</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.225582</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -646,6 +722,12 @@
       <c r="D13" t="n">
         <v>44.65700764968177</v>
       </c>
+      <c r="E13" t="n">
+        <v>44.739508</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.180843</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -662,6 +744,12 @@
       <c r="D14" t="n">
         <v>15.09459434653466</v>
       </c>
+      <c r="E14" t="n">
+        <v>44.784767</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.204405</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -678,6 +766,12 @@
       <c r="D15" t="n">
         <v>334.1143752680934</v>
       </c>
+      <c r="E15" t="n">
+        <v>44.652869</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.242527</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -694,6 +788,12 @@
       <c r="D16" t="n">
         <v>112.0255806275214</v>
       </c>
+      <c r="E16" t="n">
+        <v>44.814907</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19.268933</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -710,6 +810,12 @@
       <c r="D17" t="n">
         <v>41.76013813958622</v>
       </c>
+      <c r="E17" t="n">
+        <v>44.692531</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19.031705</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -726,6 +832,12 @@
       <c r="D18" t="n">
         <v>17.7858871964711</v>
       </c>
+      <c r="E18" t="n">
+        <v>44.631771</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18.842966</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -742,6 +854,12 @@
       <c r="D19" t="n">
         <v>100.5243770987461</v>
       </c>
+      <c r="E19" t="n">
+        <v>44.371438</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19.101828</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -758,6 +876,12 @@
       <c r="D20" t="n">
         <v>21.68050395610929</v>
       </c>
+      <c r="E20" t="n">
+        <v>44.409277</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19.12412</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -774,6 +898,12 @@
       <c r="D21" t="n">
         <v>44.4580071190898</v>
       </c>
+      <c r="E21" t="n">
+        <v>44.291826</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18.845654</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -790,6 +920,12 @@
       <c r="D22" t="n">
         <v>6.426242488254598</v>
       </c>
+      <c r="E22" t="n">
+        <v>44.185632</v>
+      </c>
+      <c r="F22" t="n">
+        <v>19.332315</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -806,6 +942,12 @@
       <c r="D23" t="n">
         <v>84.19815487631234</v>
       </c>
+      <c r="E23" t="n">
+        <v>44.116629</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19.289541</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -822,6 +964,12 @@
       <c r="D24" t="n">
         <v>179.2682580231002</v>
       </c>
+      <c r="E24" t="n">
+        <v>44.183461</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18.946396</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -838,6 +986,12 @@
       <c r="D25" t="n">
         <v>34.50019196414353</v>
       </c>
+      <c r="E25" t="n">
+        <v>43.161633</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18.542569</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -854,6 +1008,12 @@
       <c r="D26" t="n">
         <v>439.717750981198</v>
       </c>
+      <c r="E26" t="n">
+        <v>44.174384</v>
+      </c>
+      <c r="F26" t="n">
+        <v>19.07561</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -870,6 +1030,12 @@
       <c r="D27" t="n">
         <v>51.61074948386322</v>
       </c>
+      <c r="E27" t="n">
+        <v>45.134846</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17.996191</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -886,6 +1052,12 @@
       <c r="D28" t="n">
         <v>143.4863534919974</v>
       </c>
+      <c r="E28" t="n">
+        <v>45.147398</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.003667</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -902,6 +1074,12 @@
       <c r="D29" t="n">
         <v>18.96032348883599</v>
       </c>
+      <c r="E29" t="n">
+        <v>44.728593</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18.088819</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -918,6 +1096,12 @@
       <c r="D30" t="n">
         <v>380.3199417217546</v>
       </c>
+      <c r="E30" t="n">
+        <v>44.727753</v>
+      </c>
+      <c r="F30" t="n">
+        <v>18.091505</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -934,6 +1118,12 @@
       <c r="D31" t="n">
         <v>206.8310525039198</v>
       </c>
+      <c r="E31" t="n">
+        <v>44.9713</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.2765</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -950,6 +1140,12 @@
       <c r="D32" t="n">
         <v>4.720039521144849</v>
       </c>
+      <c r="E32" t="n">
+        <v>44.957807</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18.30811</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -966,6 +1162,12 @@
       <c r="D33" t="n">
         <v>49.57986416914439</v>
       </c>
+      <c r="E33" t="n">
+        <v>44.91386</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18.640417</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -982,6 +1184,12 @@
       <c r="D34" t="n">
         <v>48.09149630536612</v>
       </c>
+      <c r="E34" t="n">
+        <v>44.633948</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18.362347</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -998,6 +1206,12 @@
       <c r="D35" t="n">
         <v>20.97546104018212</v>
       </c>
+      <c r="E35" t="n">
+        <v>44.985448</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17.941826</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1014,6 +1228,12 @@
       <c r="D36" t="n">
         <v>8.755453567599696</v>
       </c>
+      <c r="E36" t="n">
+        <v>44.775561</v>
+      </c>
+      <c r="F36" t="n">
+        <v>17.206755</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1030,6 +1250,12 @@
       <c r="D37" t="n">
         <v>42.32661419525434</v>
       </c>
+      <c r="E37" t="n">
+        <v>44.862286</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17.669804</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1046,6 +1272,12 @@
       <c r="D38" t="n">
         <v>196.0437467428248</v>
       </c>
+      <c r="E38" t="n">
+        <v>44.620661</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.854182</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1062,6 +1294,12 @@
       <c r="D39" t="n">
         <v>122.3506178901734</v>
       </c>
+      <c r="E39" t="n">
+        <v>44.607583</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17.850869</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1078,6 +1316,12 @@
       <c r="D40" t="n">
         <v>66.79231851374216</v>
       </c>
+      <c r="E40" t="n">
+        <v>45.053925</v>
+      </c>
+      <c r="F40" t="n">
+        <v>18.478658</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1094,6 +1338,12 @@
       <c r="D41" t="n">
         <v>64.24919567165907</v>
       </c>
+      <c r="E41" t="n">
+        <v>43.814066</v>
+      </c>
+      <c r="F41" t="n">
+        <v>18.575143</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1110,6 +1360,12 @@
       <c r="D42" t="n">
         <v>47.67850388669157</v>
       </c>
+      <c r="E42" t="n">
+        <v>43.85079</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18.538614</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1126,6 +1382,12 @@
       <c r="D43" t="n">
         <v>37.00858505956386</v>
       </c>
+      <c r="E43" t="n">
+        <v>43.851092</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18.538386</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1142,6 +1404,12 @@
       <c r="D44" t="n">
         <v>0.5093747562502713</v>
       </c>
+      <c r="E44" t="n">
+        <v>43.825851</v>
+      </c>
+      <c r="F44" t="n">
+        <v>18.370387</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1158,6 +1426,12 @@
       <c r="D45" t="n">
         <v>25.74554404624375</v>
       </c>
+      <c r="E45" t="n">
+        <v>43.91808</v>
+      </c>
+      <c r="F45" t="n">
+        <v>18.767319</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1174,6 +1448,12 @@
       <c r="D46" t="n">
         <v>49.91798545717315</v>
       </c>
+      <c r="E46" t="n">
+        <v>43.812846</v>
+      </c>
+      <c r="F46" t="n">
+        <v>18.997463</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1190,6 +1470,12 @@
       <c r="D47" t="n">
         <v>30.11795227635995</v>
       </c>
+      <c r="E47" t="n">
+        <v>44.77922</v>
+      </c>
+      <c r="F47" t="n">
+        <v>17.196727</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1206,6 +1492,12 @@
       <c r="D48" t="n">
         <v>76.34676522047302</v>
       </c>
+      <c r="E48" t="n">
+        <v>43.789731</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19.292382</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1222,6 +1514,12 @@
       <c r="D49" t="n">
         <v>160.238461961049</v>
       </c>
+      <c r="E49" t="n">
+        <v>43.611036</v>
+      </c>
+      <c r="F49" t="n">
+        <v>19.367466</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1238,6 +1536,12 @@
       <c r="D50" t="n">
         <v>21.52660100910289</v>
       </c>
+      <c r="E50" t="n">
+        <v>43.557375</v>
+      </c>
+      <c r="F50" t="n">
+        <v>19.073298</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1254,6 +1558,12 @@
       <c r="D51" t="n">
         <v>88.74192012180983</v>
       </c>
+      <c r="E51" t="n">
+        <v>44.094532</v>
+      </c>
+      <c r="F51" t="n">
+        <v>18.95662</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1270,6 +1580,12 @@
       <c r="D52" t="n">
         <v>9.147899759844162</v>
       </c>
+      <c r="E52" t="n">
+        <v>43.932621</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18.790917</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1286,6 +1602,12 @@
       <c r="D53" t="n">
         <v>192.1310442783315</v>
       </c>
+      <c r="E53" t="n">
+        <v>43.691413</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19.087637</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1302,6 +1624,12 @@
       <c r="D54" t="n">
         <v>103.4739124890753</v>
       </c>
+      <c r="E54" t="n">
+        <v>44.979719</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16.714964</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1318,6 +1646,12 @@
       <c r="D55" t="n">
         <v>166.6081710998683</v>
       </c>
+      <c r="E55" t="n">
+        <v>45.178908</v>
+      </c>
+      <c r="F55" t="n">
+        <v>16.80244</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1334,6 +1668,12 @@
       <c r="D56" t="n">
         <v>41.03699881534386</v>
       </c>
+      <c r="E56" t="n">
+        <v>44.979176</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16.720097</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1350,6 +1690,12 @@
       <c r="D57" t="n">
         <v>3.669483086248659</v>
       </c>
+      <c r="E57" t="n">
+        <v>45.048762</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16.385818</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1366,6 +1712,12 @@
       <c r="D58" t="n">
         <v>66.55859174124886</v>
       </c>
+      <c r="E58" t="n">
+        <v>44.746573</v>
+      </c>
+      <c r="F58" t="n">
+        <v>17.155061</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1382,6 +1734,12 @@
       <c r="D59" t="n">
         <v>146.857770486436</v>
       </c>
+      <c r="E59" t="n">
+        <v>45.221632</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16.52349</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1398,6 +1756,12 @@
       <c r="D60" t="n">
         <v>307.7894793199881</v>
       </c>
+      <c r="E60" t="n">
+        <v>44.851895</v>
+      </c>
+      <c r="F60" t="n">
+        <v>16.676274</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1414,6 +1778,12 @@
       <c r="D61" t="n">
         <v>259.6010475843572</v>
       </c>
+      <c r="E61" t="n">
+        <v>44.972935</v>
+      </c>
+      <c r="F61" t="n">
+        <v>16.834951</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1430,6 +1800,12 @@
       <c r="D62" t="n">
         <v>106.7233671349378</v>
       </c>
+      <c r="E62" t="n">
+        <v>45.207291</v>
+      </c>
+      <c r="F62" t="n">
+        <v>16.877914</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1446,6 +1822,12 @@
       <c r="D63" t="n">
         <v>14.29417612383663</v>
       </c>
+      <c r="E63" t="n">
+        <v>43.256243</v>
+      </c>
+      <c r="F63" t="n">
+        <v>18.116985</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1462,6 +1844,12 @@
       <c r="D64" t="n">
         <v>198.6329683568544</v>
       </c>
+      <c r="E64" t="n">
+        <v>42.948048</v>
+      </c>
+      <c r="F64" t="n">
+        <v>18.09414</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1478,6 +1866,12 @@
       <c r="D65" t="n">
         <v>84.23715711252967</v>
       </c>
+      <c r="E65" t="n">
+        <v>43.497547</v>
+      </c>
+      <c r="F65" t="n">
+        <v>18.767348</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1494,6 +1888,12 @@
       <c r="D66" t="n">
         <v>45.60250136019521</v>
       </c>
+      <c r="E66" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="F66" t="n">
+        <v>18.644094</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1510,6 +1910,12 @@
       <c r="D67" t="n">
         <v>100.0042658106693</v>
       </c>
+      <c r="E67" t="n">
+        <v>42.873076</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18.424401</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1526,6 +1932,12 @@
       <c r="D68" t="n">
         <v>28.03191727782592</v>
       </c>
+      <c r="E68" t="n">
+        <v>42.709961</v>
+      </c>
+      <c r="F68" t="n">
+        <v>18.346192</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1542,6 +1954,12 @@
       <c r="D69" t="n">
         <v>14.63449980460888</v>
       </c>
+      <c r="E69" t="n">
+        <v>44.774165</v>
+      </c>
+      <c r="F69" t="n">
+        <v>17.181917</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1558,6 +1976,12 @@
       <c r="D70" t="n">
         <v>13.33625756381148</v>
       </c>
+      <c r="E70" t="n">
+        <v>42.701798</v>
+      </c>
+      <c r="F70" t="n">
+        <v>18.348586</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1574,6 +1998,12 @@
       <c r="D71" t="n">
         <v>120.9602936904723</v>
       </c>
+      <c r="E71" t="n">
+        <v>43.511809</v>
+      </c>
+      <c r="F71" t="n">
+        <v>18.77906</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1590,6 +2020,12 @@
       <c r="D72" t="n">
         <v>238.8802569939069</v>
       </c>
+      <c r="E72" t="n">
+        <v>44.814064</v>
+      </c>
+      <c r="F72" t="n">
+        <v>18.552236</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1606,6 +2042,12 @@
       <c r="D73" t="n">
         <v>173.5243403132255</v>
       </c>
+      <c r="E73" t="n">
+        <v>44.108284</v>
+      </c>
+      <c r="F73" t="n">
+        <v>17.431352</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1622,6 +2064,12 @@
       <c r="D74" t="n">
         <v>12.84399331919527</v>
       </c>
+      <c r="E74" t="n">
+        <v>44.556493</v>
+      </c>
+      <c r="F74" t="n">
+        <v>18.693714</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1638,6 +2086,12 @@
       <c r="D75" t="n">
         <v>56.68389382039859</v>
       </c>
+      <c r="E75" t="n">
+        <v>44.127732</v>
+      </c>
+      <c r="F75" t="n">
+        <v>17.886227</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1654,6 +2108,12 @@
       <c r="D76" t="n">
         <v>133.6878519519187</v>
       </c>
+      <c r="E76" t="n">
+        <v>44.638782</v>
+      </c>
+      <c r="F76" t="n">
+        <v>17.973634</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1670,6 +2130,12 @@
       <c r="D77" t="n">
         <v>12.09215350006093</v>
       </c>
+      <c r="E77" t="n">
+        <v>43.839405</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17.174661</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1686,6 +2152,12 @@
       <c r="D78" t="n">
         <v>44.22381024201228</v>
       </c>
+      <c r="E78" t="n">
+        <v>44.72436</v>
+      </c>
+      <c r="F78" t="n">
+        <v>18.201796</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1702,6 +2174,12 @@
       <c r="D79" t="n">
         <v>106.2053737642178</v>
       </c>
+      <c r="E79" t="n">
+        <v>44.629198</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18.560672</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1718,6 +2196,12 @@
       <c r="D80" t="n">
         <v>418.8339349748914</v>
       </c>
+      <c r="E80" t="n">
+        <v>44.811729</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17.21171</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1734,6 +2218,12 @@
       <c r="D81" t="n">
         <v>201.3009785720912</v>
       </c>
+      <c r="E81" t="n">
+        <v>44.784175</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18.515896</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1750,6 +2240,12 @@
       <c r="D82" t="n">
         <v>10.73003854456771</v>
       </c>
+      <c r="E82" t="n">
+        <v>43.39385</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17.86903</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1766,6 +2262,12 @@
       <c r="D83" t="n">
         <v>57.32641293612441</v>
       </c>
+      <c r="E83" t="n">
+        <v>45.143649</v>
+      </c>
+      <c r="F83" t="n">
+        <v>17.255218</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1782,6 +2284,12 @@
       <c r="D84" t="n">
         <v>179.5981107068655</v>
       </c>
+      <c r="E84" t="n">
+        <v>44.9090978</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17.0225537</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1798,6 +2306,12 @@
       <c r="D85" t="n">
         <v>74.38810882010614</v>
       </c>
+      <c r="E85" t="n">
+        <v>45.1766639</v>
+      </c>
+      <c r="F85" t="n">
+        <v>16.7949789</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1814,6 +2328,12 @@
       <c r="D86" t="n">
         <v>30.14399311150431</v>
       </c>
+      <c r="E86" t="n">
+        <v>44.7613835</v>
+      </c>
+      <c r="F86" t="n">
+        <v>19.2060944</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1830,6 +2350,12 @@
       <c r="D87" t="n">
         <v>87.28790523015998</v>
       </c>
+      <c r="E87" t="n">
+        <v>43.9295946</v>
+      </c>
+      <c r="F87" t="n">
+        <v>18.3317267</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1846,6 +2372,12 @@
       <c r="D88" t="n">
         <v>95.99114936892623</v>
       </c>
+      <c r="E88" t="n">
+        <v>44.6336947</v>
+      </c>
+      <c r="F88" t="n">
+        <v>17.9756766</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1861,6 +2393,12 @@
       </c>
       <c r="D89" t="n">
         <v>122.1948733650444</v>
+      </c>
+      <c r="E89" t="n">
+        <v>44.828841</v>
+      </c>
+      <c r="F89" t="n">
+        <v>17.209831</v>
       </c>
     </row>
   </sheetData>

--- a/data/revenue/total_revenue_NestroStations.xlsx
+++ b/data/revenue/total_revenue_NestroStations.xlsx
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1449.037102201092</v>
+        <v>1806.178844208095</v>
       </c>
       <c r="D2" t="n">
-        <v>98.70041756216175</v>
+        <v>407.7115071707141</v>
       </c>
       <c r="E2" t="n">
         <v>43.842315</v>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1651.038267812853</v>
+        <v>1232.275266656481</v>
       </c>
       <c r="D3" t="n">
-        <v>9.691205549252933</v>
+        <v>28.72123412188829</v>
       </c>
       <c r="E3" t="n">
         <v>45.052381</v>
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8639.015328931055</v>
+        <v>9453.229681054592</v>
       </c>
       <c r="D4" t="n">
-        <v>54.76367353278705</v>
+        <v>86.49962071496805</v>
       </c>
       <c r="E4" t="n">
         <v>44.622637</v>
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2021.692237650019</v>
+        <v>2020.645840431246</v>
       </c>
       <c r="D5" t="n">
-        <v>12.38584358167861</v>
+        <v>41.03064009703111</v>
       </c>
       <c r="E5" t="n">
         <v>44.320866</v>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1608.192125351144</v>
+        <v>1583.578656282169</v>
       </c>
       <c r="D6" t="n">
-        <v>12.46126802736494</v>
+        <v>38.51012148770654</v>
       </c>
       <c r="E6" t="n">
         <v>44.419015</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2074.873649348861</v>
+        <v>2282.787059269585</v>
       </c>
       <c r="D7" t="n">
-        <v>109.2216290266381</v>
+        <v>387.1670622625854</v>
       </c>
       <c r="E7" t="n">
         <v>44.872041</v>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5408.680643334267</v>
+        <v>5291.676341186086</v>
       </c>
       <c r="D8" t="n">
-        <v>39.44037730635944</v>
+        <v>131.287308239365</v>
       </c>
       <c r="E8" t="n">
         <v>44.489545</v>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7432.590570702938</v>
+        <v>9544.540450484057</v>
       </c>
       <c r="D9" t="n">
-        <v>75.42948505198704</v>
+        <v>1162.065520642549</v>
       </c>
       <c r="E9" t="n">
         <v>44.821766</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1950.275018151274</v>
+        <v>1846.181806020785</v>
       </c>
       <c r="D10" t="n">
-        <v>87.31624845055546</v>
+        <v>281.6791784229439</v>
       </c>
       <c r="E10" t="n">
         <v>45.096755</v>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>580.7066563894709</v>
+        <v>481.1560855465092</v>
       </c>
       <c r="D11" t="n">
-        <v>15.21292601832845</v>
+        <v>26.87594821474492</v>
       </c>
       <c r="E11" t="n">
         <v>44.903194</v>
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>462.8354506910603</v>
+        <v>415.7872914689438</v>
       </c>
       <c r="D12" t="n">
-        <v>1.969195977059118</v>
+        <v>12.81157165857361</v>
       </c>
       <c r="E12" t="n">
         <v>44.768788</v>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>546.4462884382613</v>
+        <v>407.9367047027621</v>
       </c>
       <c r="D13" t="n">
-        <v>44.65700764968177</v>
+        <v>94.74651015919434</v>
       </c>
       <c r="E13" t="n">
         <v>44.739508</v>
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2070.803835981968</v>
+        <v>2010.167205649101</v>
       </c>
       <c r="D14" t="n">
-        <v>15.09459434653466</v>
+        <v>46.70765961370152</v>
       </c>
       <c r="E14" t="n">
         <v>44.784767</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4676.966712087181</v>
+        <v>4683.482658260802</v>
       </c>
       <c r="D15" t="n">
-        <v>334.1143752680934</v>
+        <v>691.6760901769281</v>
       </c>
       <c r="E15" t="n">
         <v>44.652869</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1623.493477819187</v>
+        <v>1287.457737478094</v>
       </c>
       <c r="D16" t="n">
-        <v>112.0255806275214</v>
+        <v>308.9301928287802</v>
       </c>
       <c r="E16" t="n">
         <v>44.814907</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>390.3230560448729</v>
+        <v>419.6813555938601</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76013813958622</v>
+        <v>55.40366986083069</v>
       </c>
       <c r="E17" t="n">
         <v>44.692531</v>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1260.027338289434</v>
+        <v>1659.617111375378</v>
       </c>
       <c r="D18" t="n">
-        <v>17.7858871964711</v>
+        <v>24.05950148216661</v>
       </c>
       <c r="E18" t="n">
         <v>44.631771</v>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2141.17066431464</v>
+        <v>1845.244544013838</v>
       </c>
       <c r="D19" t="n">
-        <v>100.5243770987461</v>
+        <v>379.9115917193403</v>
       </c>
       <c r="E19" t="n">
         <v>44.371438</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5105.219708277438</v>
+        <v>4051.792739062894</v>
       </c>
       <c r="D20" t="n">
-        <v>21.68050395610929</v>
+        <v>85.36289093981956</v>
       </c>
       <c r="E20" t="n">
         <v>44.409277</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1023.530481336202</v>
+        <v>925.3520427100261</v>
       </c>
       <c r="D21" t="n">
-        <v>44.4580071190898</v>
+        <v>83.19771118419139</v>
       </c>
       <c r="E21" t="n">
         <v>44.291826</v>
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2050.107235122257</v>
+        <v>2104.280078793389</v>
       </c>
       <c r="D22" t="n">
-        <v>6.426242488254598</v>
+        <v>41.05861642442175</v>
       </c>
       <c r="E22" t="n">
         <v>44.185632</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1101.178902097589</v>
+        <v>1069.21056593477</v>
       </c>
       <c r="D23" t="n">
-        <v>84.19815487631234</v>
+        <v>272.3907052936605</v>
       </c>
       <c r="E23" t="n">
         <v>44.116629</v>
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1844.665439716767</v>
+        <v>1941.410533846513</v>
       </c>
       <c r="D24" t="n">
-        <v>179.2682580231002</v>
+        <v>204.3129764890861</v>
       </c>
       <c r="E24" t="n">
         <v>44.183461</v>
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>311.8457595483181</v>
+        <v>307.6620427012476</v>
       </c>
       <c r="D25" t="n">
-        <v>34.50019196414353</v>
+        <v>75.85198628375521</v>
       </c>
       <c r="E25" t="n">
         <v>43.161633</v>
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8507.399720633828</v>
+        <v>10782.419824455</v>
       </c>
       <c r="D26" t="n">
-        <v>439.717750981198</v>
+        <v>1045.724040604582</v>
       </c>
       <c r="E26" t="n">
         <v>44.174384</v>
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2609.672746313175</v>
+        <v>2478.059488808067</v>
       </c>
       <c r="D27" t="n">
-        <v>51.61074948386322</v>
+        <v>427.3699610232595</v>
       </c>
       <c r="E27" t="n">
         <v>45.134846</v>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2317.928877147474</v>
+        <v>2552.568488978162</v>
       </c>
       <c r="D28" t="n">
-        <v>143.4863534919974</v>
+        <v>187.0414717043077</v>
       </c>
       <c r="E28" t="n">
         <v>45.147398</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5000.614427498569</v>
+        <v>5723.005989819848</v>
       </c>
       <c r="D29" t="n">
-        <v>18.96032348883599</v>
+        <v>96.01773580690249</v>
       </c>
       <c r="E29" t="n">
         <v>44.728593</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5438.757407285675</v>
+        <v>5793.869957781194</v>
       </c>
       <c r="D30" t="n">
-        <v>380.3199417217546</v>
+        <v>542.0515160490944</v>
       </c>
       <c r="E30" t="n">
         <v>44.727753</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2476.391617006992</v>
+        <v>2856.022868391447</v>
       </c>
       <c r="D31" t="n">
-        <v>206.8310525039198</v>
+        <v>237.9345687001792</v>
       </c>
       <c r="E31" t="n">
         <v>44.9713</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>732.6431419606552</v>
+        <v>720.7146802133129</v>
       </c>
       <c r="D32" t="n">
-        <v>4.720039521144849</v>
+        <v>117.9427989529971</v>
       </c>
       <c r="E32" t="n">
         <v>44.957807</v>
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>649.9522035525226</v>
+        <v>617.8376682626532</v>
       </c>
       <c r="D33" t="n">
-        <v>49.57986416914439</v>
+        <v>113.9916284899213</v>
       </c>
       <c r="E33" t="n">
         <v>44.91386</v>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5122.765028010466</v>
+        <v>5370.658796550129</v>
       </c>
       <c r="D34" t="n">
-        <v>48.09149630536612</v>
+        <v>118.0461628958768</v>
       </c>
       <c r="E34" t="n">
         <v>44.633948</v>
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>494.2260088374204</v>
+        <v>422.7710019392697</v>
       </c>
       <c r="D35" t="n">
-        <v>20.97546104018212</v>
+        <v>72.80403428007837</v>
       </c>
       <c r="E35" t="n">
         <v>44.985448</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>612.3033578328891</v>
+        <v>509.6143648864476</v>
       </c>
       <c r="D36" t="n">
-        <v>8.755453567599696</v>
+        <v>32.3966030765799</v>
       </c>
       <c r="E36" t="n">
         <v>44.775561</v>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2324.183001792793</v>
+        <v>2861.981335358628</v>
       </c>
       <c r="D37" t="n">
-        <v>42.32661419525434</v>
+        <v>92.69834083187595</v>
       </c>
       <c r="E37" t="n">
         <v>44.862286</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2886.597617954666</v>
+        <v>2666.544522711947</v>
       </c>
       <c r="D38" t="n">
-        <v>196.0437467428248</v>
+        <v>376.2923403322759</v>
       </c>
       <c r="E38" t="n">
         <v>44.620661</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2452.672412602114</v>
+        <v>2509.293391670984</v>
       </c>
       <c r="D39" t="n">
-        <v>122.3506178901734</v>
+        <v>425.0579291589573</v>
       </c>
       <c r="E39" t="n">
         <v>44.607583</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>678.8167707721012</v>
+        <v>722.6127283967106</v>
       </c>
       <c r="D40" t="n">
-        <v>66.79231851374216</v>
+        <v>133.6794222506874</v>
       </c>
       <c r="E40" t="n">
         <v>45.053925</v>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3502.389931957161</v>
+        <v>4201.159387323574</v>
       </c>
       <c r="D41" t="n">
-        <v>64.24919567165907</v>
+        <v>329.0244267573055</v>
       </c>
       <c r="E41" t="n">
         <v>43.814066</v>
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>496.4424072062754</v>
+        <v>490.5016884502865</v>
       </c>
       <c r="D42" t="n">
-        <v>47.67850388669157</v>
+        <v>106.8775588744595</v>
       </c>
       <c r="E42" t="n">
         <v>43.85079</v>
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>509.1617705454834</v>
+        <v>479.2643274074362</v>
       </c>
       <c r="D43" t="n">
-        <v>37.00858505956386</v>
+        <v>103.8111363878785</v>
       </c>
       <c r="E43" t="n">
         <v>43.851092</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5468.100484414143</v>
+        <v>5908.1639899243</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5093747562502713</v>
+        <v>95.35156806359386</v>
       </c>
       <c r="E44" t="n">
         <v>43.825851</v>
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>563.0024182192295</v>
+        <v>489.104562856491</v>
       </c>
       <c r="D45" t="n">
-        <v>25.74554404624375</v>
+        <v>88.7239023542939</v>
       </c>
       <c r="E45" t="n">
         <v>43.91808</v>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1164.865361874146</v>
+        <v>1171.914471500222</v>
       </c>
       <c r="D46" t="n">
-        <v>49.91798545717315</v>
+        <v>323.1116325804228</v>
       </c>
       <c r="E46" t="n">
         <v>43.812846</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2116.865680149335</v>
+        <v>2601.280580274115</v>
       </c>
       <c r="D47" t="n">
-        <v>30.11795227635995</v>
+        <v>278.0674922227721</v>
       </c>
       <c r="E47" t="n">
         <v>44.77922</v>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1835.287053618431</v>
+        <v>1938.031604891956</v>
       </c>
       <c r="D48" t="n">
-        <v>76.34676522047302</v>
+        <v>191.2615301637004</v>
       </c>
       <c r="E48" t="n">
         <v>43.789731</v>
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1812.662228661066</v>
+        <v>1877.997466469431</v>
       </c>
       <c r="D49" t="n">
-        <v>160.238461961049</v>
+        <v>538.84721868596</v>
       </c>
       <c r="E49" t="n">
         <v>43.611036</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>248.4479664375422</v>
+        <v>245.5636851142651</v>
       </c>
       <c r="D50" t="n">
-        <v>21.52660100910289</v>
+        <v>51.30129364949533</v>
       </c>
       <c r="E50" t="n">
         <v>43.557375</v>
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1703.356101951166</v>
+        <v>1898.157683869296</v>
       </c>
       <c r="D51" t="n">
-        <v>88.74192012180983</v>
+        <v>345.0813810848628</v>
       </c>
       <c r="E51" t="n">
         <v>44.094532</v>
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1838.09153734785</v>
+        <v>1724.302344959958</v>
       </c>
       <c r="D52" t="n">
-        <v>9.147899759844162</v>
+        <v>22.77086206457286</v>
       </c>
       <c r="E52" t="n">
         <v>43.932621</v>
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1279.496216299671</v>
+        <v>1306.20207386138</v>
       </c>
       <c r="D53" t="n">
-        <v>192.1310442783315</v>
+        <v>232.9815637472151</v>
       </c>
       <c r="E53" t="n">
         <v>43.691413</v>
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5556.462597113005</v>
+        <v>5302.277193164296</v>
       </c>
       <c r="D54" t="n">
-        <v>103.4739124890753</v>
+        <v>457.8247461573526</v>
       </c>
       <c r="E54" t="n">
         <v>44.979719</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2468.385577310841</v>
+        <v>2637.448328079301</v>
       </c>
       <c r="D55" t="n">
-        <v>166.6081710998683</v>
+        <v>376.1332348210512</v>
       </c>
       <c r="E55" t="n">
         <v>45.178908</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5122.126986863499</v>
+        <v>5362.336161225395</v>
       </c>
       <c r="D56" t="n">
-        <v>41.03699881534386</v>
+        <v>115.3762117401257</v>
       </c>
       <c r="E56" t="n">
         <v>44.979176</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>557.3412357586905</v>
+        <v>629.6145443794372</v>
       </c>
       <c r="D57" t="n">
-        <v>3.669483086248659</v>
+        <v>10.2141490024982</v>
       </c>
       <c r="E57" t="n">
         <v>45.048762</v>
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2180.087570480948</v>
+        <v>1698.567022926348</v>
       </c>
       <c r="D58" t="n">
-        <v>66.55859174124886</v>
+        <v>298.3662642806394</v>
       </c>
       <c r="E58" t="n">
         <v>44.746573</v>
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1404.342102785131</v>
+        <v>929.0288270079659</v>
       </c>
       <c r="D59" t="n">
-        <v>146.857770486436</v>
+        <v>226.4117988419893</v>
       </c>
       <c r="E59" t="n">
         <v>45.221632</v>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5323.933240165451</v>
+        <v>6039.62430067721</v>
       </c>
       <c r="D60" t="n">
-        <v>307.7894793199881</v>
+        <v>694.058733014431</v>
       </c>
       <c r="E60" t="n">
         <v>44.851895</v>
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3349.790385642112</v>
+        <v>3513.531590277322</v>
       </c>
       <c r="D61" t="n">
-        <v>259.6010475843572</v>
+        <v>539.9089585977241</v>
       </c>
       <c r="E61" t="n">
         <v>44.972935</v>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1112.568405957743</v>
+        <v>1241.296421064273</v>
       </c>
       <c r="D62" t="n">
-        <v>106.7233671349378</v>
+        <v>340.5525048005588</v>
       </c>
       <c r="E62" t="n">
         <v>45.207291</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2482.084413987383</v>
+        <v>2546.790615014672</v>
       </c>
       <c r="D63" t="n">
-        <v>14.29417612383663</v>
+        <v>43.15488794652988</v>
       </c>
       <c r="E63" t="n">
         <v>43.256243</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9224.596354383277</v>
+        <v>9053.509990121293</v>
       </c>
       <c r="D64" t="n">
-        <v>198.6329683568544</v>
+        <v>1335.956685593564</v>
       </c>
       <c r="E64" t="n">
         <v>42.948048</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2159.498010753096</v>
+        <v>2112.567222171462</v>
       </c>
       <c r="D65" t="n">
-        <v>84.23715711252967</v>
+        <v>344.3774887808416</v>
       </c>
       <c r="E65" t="n">
         <v>43.497547</v>
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7495.347625797436</v>
+        <v>5870.716031477497</v>
       </c>
       <c r="D66" t="n">
-        <v>45.60250136019521</v>
+        <v>81.83395830543002</v>
       </c>
       <c r="E66" t="n">
         <v>43.51</v>
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3523.280224903453</v>
+        <v>3102.155921204155</v>
       </c>
       <c r="D67" t="n">
-        <v>100.0042658106693</v>
+        <v>444.6668508172958</v>
       </c>
       <c r="E67" t="n">
         <v>42.873076</v>
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4106.921137966626</v>
+        <v>3408.201321455397</v>
       </c>
       <c r="D68" t="n">
-        <v>28.03191727782592</v>
+        <v>42.07598376171484</v>
       </c>
       <c r="E68" t="n">
         <v>42.709961</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2099.388229976094</v>
+        <v>1797.739264928749</v>
       </c>
       <c r="D69" t="n">
-        <v>14.63449980460888</v>
+        <v>24.28728383253665</v>
       </c>
       <c r="E69" t="n">
         <v>44.774165</v>
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>922.1960027312937</v>
+        <v>814.4816038699558</v>
       </c>
       <c r="D70" t="n">
-        <v>13.33625756381148</v>
+        <v>22.90187791643978</v>
       </c>
       <c r="E70" t="n">
         <v>42.701798</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2041.839980323153</v>
+        <v>2130.748736124625</v>
       </c>
       <c r="D71" t="n">
-        <v>120.9602936904723</v>
+        <v>323.1702382462711</v>
       </c>
       <c r="E71" t="n">
         <v>43.511809</v>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4857.19735989466</v>
+        <v>5393.920631152244</v>
       </c>
       <c r="D72" t="n">
-        <v>238.8802569939069</v>
+        <v>1226.908339966712</v>
       </c>
       <c r="E72" t="n">
         <v>44.814064</v>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2402.394507895451</v>
+        <v>2276.79962338407</v>
       </c>
       <c r="D73" t="n">
-        <v>173.5243403132255</v>
+        <v>400.9602256137007</v>
       </c>
       <c r="E73" t="n">
         <v>44.108284</v>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>957.7627120241863</v>
+        <v>971.0150669553971</v>
       </c>
       <c r="D74" t="n">
-        <v>12.84399331919527</v>
+        <v>13.69270763847077</v>
       </c>
       <c r="E74" t="n">
         <v>44.556493</v>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1018.314280279482</v>
+        <v>1345.884638485251</v>
       </c>
       <c r="D75" t="n">
-        <v>56.68389382039859</v>
+        <v>289.4981998862748</v>
       </c>
       <c r="E75" t="n">
         <v>44.127732</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1356.078302700826</v>
+        <v>1205.886665455986</v>
       </c>
       <c r="D76" t="n">
-        <v>133.6878519519187</v>
+        <v>266.0890009808356</v>
       </c>
       <c r="E76" t="n">
         <v>44.638782</v>
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1662.058828531619</v>
+        <v>1259.641829500908</v>
       </c>
       <c r="D77" t="n">
-        <v>12.09215350006093</v>
+        <v>100.1503892943457</v>
       </c>
       <c r="E77" t="n">
         <v>43.839405</v>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1294.699201391355</v>
+        <v>1306.849996628491</v>
       </c>
       <c r="D78" t="n">
-        <v>44.22381024201228</v>
+        <v>153.0568761043936</v>
       </c>
       <c r="E78" t="n">
         <v>44.72436</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1274.040639433821</v>
+        <v>1208.969687993054</v>
       </c>
       <c r="D79" t="n">
-        <v>106.2053737642178</v>
+        <v>411.6929057537692</v>
       </c>
       <c r="E79" t="n">
         <v>44.629198</v>
@@ -2191,10 +2191,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7185.375206653093</v>
+        <v>7015.814516768281</v>
       </c>
       <c r="D80" t="n">
-        <v>418.8339349748914</v>
+        <v>271.3022949835727</v>
       </c>
       <c r="E80" t="n">
         <v>44.811729</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5411.367896622125</v>
+        <v>5760.068620413542</v>
       </c>
       <c r="D81" t="n">
-        <v>201.3009785720912</v>
+        <v>905.382937599176</v>
       </c>
       <c r="E81" t="n">
         <v>44.784175</v>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>551.9836333184655</v>
+        <v>614.7581573322224</v>
       </c>
       <c r="D82" t="n">
-        <v>10.73003854456771</v>
+        <v>189.4771945915018</v>
       </c>
       <c r="E82" t="n">
         <v>43.39385</v>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1632.079569502298</v>
+        <v>1885.173688838256</v>
       </c>
       <c r="D83" t="n">
-        <v>57.32641293612441</v>
+        <v>256.0141738140383</v>
       </c>
       <c r="E83" t="n">
         <v>45.143649</v>
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2166.902879324373</v>
+        <v>2099.462895905727</v>
       </c>
       <c r="D84" t="n">
-        <v>179.5981107068655</v>
+        <v>431.1296713184915</v>
       </c>
       <c r="E84" t="n">
         <v>44.9090978</v>
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1669.783704764174</v>
+        <v>1669.732643088087</v>
       </c>
       <c r="D85" t="n">
-        <v>74.38810882010614</v>
+        <v>305.1051766403034</v>
       </c>
       <c r="E85" t="n">
         <v>45.1766639</v>
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>461.2721928605649</v>
+        <v>459.045289753395</v>
       </c>
       <c r="D86" t="n">
-        <v>30.14399311150431</v>
+        <v>68.06192415792897</v>
       </c>
       <c r="E86" t="n">
         <v>44.7613835</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1346.25522357538</v>
+        <v>1438.987316068428</v>
       </c>
       <c r="D87" t="n">
-        <v>87.28790523015998</v>
+        <v>170.929516313113</v>
       </c>
       <c r="E87" t="n">
         <v>43.9295946</v>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1284.151314256609</v>
+        <v>1587.658111249927</v>
       </c>
       <c r="D88" t="n">
-        <v>95.99114936892623</v>
+        <v>90.89850258544786</v>
       </c>
       <c r="E88" t="n">
         <v>44.6336947</v>
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1720.650265909013</v>
+        <v>2051.270973230331</v>
       </c>
       <c r="D89" t="n">
-        <v>122.1948733650444</v>
+        <v>486.339790740188</v>
       </c>
       <c r="E89" t="n">
         <v>44.828841</v>
